--- a/doc/io 分配表 - HvsNv1.2.0.xlsx
+++ b/doc/io 分配表 - HvsNv1.2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6405" activeTab="3"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6405" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -5085,13 +5085,13 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>relay59-77</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>程序基于HvsNv1.1.0，形成 HvsNv1.2.0
 引脚基于本文件，变动表现在 Sheet3 中 列E&amp;G
 依托并应用在项目 PC181726深圳航盛新能源</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>relay59 60  61 66~81</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5386,6 +5386,9 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -5403,9 +5406,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -5885,8 +5885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B93" sqref="B93"/>
+    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B75" sqref="B75:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6410,7 +6410,7 @@
       <c r="B51" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="C51" s="21" t="s">
+      <c r="C51" s="22" t="s">
         <v>197</v>
       </c>
     </row>
@@ -6421,7 +6421,7 @@
       <c r="B52" s="2" t="s">
         <v>142</v>
       </c>
-      <c r="C52" s="22"/>
+      <c r="C52" s="23"/>
     </row>
     <row r="53" spans="1:3" ht="20.25">
       <c r="A53" s="2" t="s">
@@ -6430,7 +6430,7 @@
       <c r="B53" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C53" s="22"/>
+      <c r="C53" s="23"/>
     </row>
     <row r="54" spans="1:3" ht="20.25">
       <c r="A54" s="2" t="s">
@@ -6439,7 +6439,7 @@
       <c r="B54" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="C54" s="22"/>
+      <c r="C54" s="23"/>
     </row>
     <row r="55" spans="1:3" ht="20.25">
       <c r="A55" s="2" t="s">
@@ -6448,7 +6448,7 @@
       <c r="B55" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C55" s="22"/>
+      <c r="C55" s="23"/>
     </row>
     <row r="56" spans="1:3" ht="20.25">
       <c r="A56" s="2" t="s">
@@ -6457,7 +6457,7 @@
       <c r="B56" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="C56" s="22"/>
+      <c r="C56" s="23"/>
     </row>
     <row r="57" spans="1:3" ht="20.25">
       <c r="A57" s="2" t="s">
@@ -6466,7 +6466,7 @@
       <c r="B57" s="2" t="s">
         <v>151</v>
       </c>
-      <c r="C57" s="22"/>
+      <c r="C57" s="23"/>
     </row>
     <row r="58" spans="1:3" ht="20.25">
       <c r="A58" s="2" t="s">
@@ -6475,7 +6475,7 @@
       <c r="B58" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C58" s="22"/>
+      <c r="C58" s="23"/>
     </row>
     <row r="59" spans="1:3" ht="20.25">
       <c r="A59" s="2" t="s">
@@ -6484,7 +6484,7 @@
       <c r="B59" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C59" s="22"/>
+      <c r="C59" s="23"/>
     </row>
     <row r="60" spans="1:3" ht="20.25">
       <c r="A60" s="2" t="s">
@@ -6493,7 +6493,7 @@
       <c r="B60" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="C60" s="22"/>
+      <c r="C60" s="23"/>
     </row>
     <row r="61" spans="1:3" ht="20.25">
       <c r="A61" s="2" t="s">
@@ -6502,7 +6502,7 @@
       <c r="B61" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="C61" s="22"/>
+      <c r="C61" s="23"/>
     </row>
     <row r="62" spans="1:3" ht="20.25">
       <c r="A62" s="2" t="s">
@@ -6511,7 +6511,7 @@
       <c r="B62" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C62" s="22"/>
+      <c r="C62" s="23"/>
     </row>
     <row r="63" spans="1:3" ht="20.25">
       <c r="A63" s="2" t="s">
@@ -6520,7 +6520,7 @@
       <c r="B63" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C63" s="22"/>
+      <c r="C63" s="23"/>
     </row>
     <row r="64" spans="1:3" ht="20.25">
       <c r="A64" s="2" t="s">
@@ -6529,7 +6529,7 @@
       <c r="B64" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C64" s="22"/>
+      <c r="C64" s="23"/>
     </row>
     <row r="65" spans="1:3" ht="20.25">
       <c r="A65" s="2" t="s">
@@ -6538,7 +6538,7 @@
       <c r="B65" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="C65" s="22"/>
+      <c r="C65" s="23"/>
     </row>
     <row r="66" spans="1:3" ht="20.25">
       <c r="A66" s="2" t="s">
@@ -6547,7 +6547,7 @@
       <c r="B66" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C66" s="22"/>
+      <c r="C66" s="23"/>
     </row>
     <row r="67" spans="1:3" ht="20.25">
       <c r="A67" s="2" t="s">
@@ -6556,7 +6556,7 @@
       <c r="B67" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C67" s="22"/>
+      <c r="C67" s="23"/>
     </row>
     <row r="68" spans="1:3" ht="20.25">
       <c r="A68" s="2" t="s">
@@ -6565,7 +6565,7 @@
       <c r="B68" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="C68" s="22"/>
+      <c r="C68" s="23"/>
     </row>
     <row r="69" spans="1:3" ht="20.25">
       <c r="A69" s="2" t="s">
@@ -6574,7 +6574,7 @@
       <c r="B69" s="2" t="s">
         <v>158</v>
       </c>
-      <c r="C69" s="22"/>
+      <c r="C69" s="23"/>
     </row>
     <row r="70" spans="1:3" ht="20.25">
       <c r="A70" s="2" t="s">
@@ -6583,7 +6583,7 @@
       <c r="B70" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="C70" s="23"/>
+      <c r="C70" s="24"/>
     </row>
     <row r="71" spans="1:3" ht="20.25">
       <c r="A71" s="2" t="s">
@@ -6592,7 +6592,7 @@
       <c r="B71" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="C71" s="21" t="s">
+      <c r="C71" s="22" t="s">
         <v>198</v>
       </c>
     </row>
@@ -6603,7 +6603,7 @@
       <c r="B72" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="C72" s="22"/>
+      <c r="C72" s="23"/>
     </row>
     <row r="73" spans="1:3" ht="20.25">
       <c r="A73" s="2" t="s">
@@ -6612,7 +6612,7 @@
       <c r="B73" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C73" s="22"/>
+      <c r="C73" s="23"/>
     </row>
     <row r="74" spans="1:3" ht="20.25">
       <c r="A74" s="2" t="s">
@@ -6621,7 +6621,7 @@
       <c r="B74" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C74" s="22"/>
+      <c r="C74" s="23"/>
     </row>
     <row r="75" spans="1:3" ht="20.25">
       <c r="A75" s="2" t="s">
@@ -6630,7 +6630,7 @@
       <c r="B75" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C75" s="22"/>
+      <c r="C75" s="23"/>
     </row>
     <row r="76" spans="1:3" ht="20.25">
       <c r="A76" s="2" t="s">
@@ -6639,7 +6639,7 @@
       <c r="B76" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="C76" s="22"/>
+      <c r="C76" s="23"/>
     </row>
     <row r="77" spans="1:3" ht="20.25">
       <c r="A77" s="2" t="s">
@@ -6648,7 +6648,7 @@
       <c r="B77" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="C77" s="22"/>
+      <c r="C77" s="23"/>
     </row>
     <row r="78" spans="1:3" ht="20.25">
       <c r="A78" s="2" t="s">
@@ -6657,7 +6657,7 @@
       <c r="B78" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="C78" s="22"/>
+      <c r="C78" s="23"/>
     </row>
     <row r="79" spans="1:3" ht="20.25">
       <c r="A79" s="2" t="s">
@@ -6666,7 +6666,7 @@
       <c r="B79" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C79" s="22"/>
+      <c r="C79" s="23"/>
     </row>
     <row r="80" spans="1:3" ht="20.25">
       <c r="A80" s="2" t="s">
@@ -6675,7 +6675,7 @@
       <c r="B80" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="C80" s="22"/>
+      <c r="C80" s="23"/>
     </row>
     <row r="81" spans="1:3" ht="20.25">
       <c r="A81" s="2" t="s">
@@ -6684,7 +6684,7 @@
       <c r="B81" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="C81" s="22"/>
+      <c r="C81" s="23"/>
     </row>
     <row r="82" spans="1:3" ht="20.25">
       <c r="A82" s="2" t="s">
@@ -6693,7 +6693,7 @@
       <c r="B82" s="2" t="s">
         <v>181</v>
       </c>
-      <c r="C82" s="22"/>
+      <c r="C82" s="23"/>
     </row>
     <row r="83" spans="1:3" ht="20.25">
       <c r="A83" s="2" t="s">
@@ -6702,7 +6702,7 @@
       <c r="B83" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="C83" s="22"/>
+      <c r="C83" s="23"/>
     </row>
     <row r="84" spans="1:3" ht="20.25">
       <c r="A84" s="2" t="s">
@@ -6711,7 +6711,7 @@
       <c r="B84" s="2" t="s">
         <v>184</v>
       </c>
-      <c r="C84" s="22"/>
+      <c r="C84" s="23"/>
     </row>
     <row r="85" spans="1:3" ht="20.25">
       <c r="A85" s="2" t="s">
@@ -6720,7 +6720,7 @@
       <c r="B85" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C85" s="22"/>
+      <c r="C85" s="23"/>
     </row>
     <row r="86" spans="1:3" ht="20.25">
       <c r="A86" s="2" t="s">
@@ -6729,7 +6729,7 @@
       <c r="B86" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="C86" s="22"/>
+      <c r="C86" s="23"/>
     </row>
     <row r="87" spans="1:3" ht="20.25">
       <c r="A87" s="2" t="s">
@@ -6738,7 +6738,7 @@
       <c r="B87" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="C87" s="22"/>
+      <c r="C87" s="23"/>
     </row>
     <row r="88" spans="1:3" ht="20.25">
       <c r="A88" s="2" t="s">
@@ -6747,7 +6747,7 @@
       <c r="B88" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C88" s="22"/>
+      <c r="C88" s="23"/>
     </row>
     <row r="89" spans="1:3" ht="20.25">
       <c r="A89" s="2" t="s">
@@ -6756,7 +6756,7 @@
       <c r="B89" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="C89" s="22"/>
+      <c r="C89" s="23"/>
     </row>
     <row r="90" spans="1:3" ht="20.25">
       <c r="A90" s="2" t="s">
@@ -6765,7 +6765,7 @@
       <c r="B90" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="C90" s="23"/>
+      <c r="C90" s="24"/>
     </row>
     <row r="91" spans="1:3" ht="20.25">
       <c r="A91" s="2" t="s">
@@ -7453,7 +7453,7 @@
       <c r="B51" s="5" t="s">
         <v>264</v>
       </c>
-      <c r="C51" s="24" t="s">
+      <c r="C51" s="25" t="s">
         <v>265</v>
       </c>
     </row>
@@ -7464,7 +7464,7 @@
       <c r="B52" s="5" t="s">
         <v>266</v>
       </c>
-      <c r="C52" s="25"/>
+      <c r="C52" s="26"/>
     </row>
     <row r="53" spans="1:3" ht="15">
       <c r="A53" s="5" t="s">
@@ -7473,7 +7473,7 @@
       <c r="B53" s="5" t="s">
         <v>267</v>
       </c>
-      <c r="C53" s="25"/>
+      <c r="C53" s="26"/>
     </row>
     <row r="54" spans="1:3" ht="15">
       <c r="A54" s="5" t="s">
@@ -7482,7 +7482,7 @@
       <c r="B54" s="5" t="s">
         <v>268</v>
       </c>
-      <c r="C54" s="25"/>
+      <c r="C54" s="26"/>
     </row>
     <row r="55" spans="1:3" ht="15">
       <c r="A55" s="5" t="s">
@@ -7491,7 +7491,7 @@
       <c r="B55" s="5" t="s">
         <v>269</v>
       </c>
-      <c r="C55" s="25"/>
+      <c r="C55" s="26"/>
     </row>
     <row r="56" spans="1:3" ht="15">
       <c r="A56" s="5" t="s">
@@ -7500,7 +7500,7 @@
       <c r="B56" s="5" t="s">
         <v>270</v>
       </c>
-      <c r="C56" s="25"/>
+      <c r="C56" s="26"/>
     </row>
     <row r="57" spans="1:3" ht="15">
       <c r="A57" s="5" t="s">
@@ -7509,7 +7509,7 @@
       <c r="B57" s="5" t="s">
         <v>271</v>
       </c>
-      <c r="C57" s="25"/>
+      <c r="C57" s="26"/>
     </row>
     <row r="58" spans="1:3" ht="15">
       <c r="A58" s="5" t="s">
@@ -7518,7 +7518,7 @@
       <c r="B58" s="5" t="s">
         <v>272</v>
       </c>
-      <c r="C58" s="25"/>
+      <c r="C58" s="26"/>
     </row>
     <row r="59" spans="1:3" ht="15">
       <c r="A59" s="5" t="s">
@@ -7527,7 +7527,7 @@
       <c r="B59" s="5" t="s">
         <v>273</v>
       </c>
-      <c r="C59" s="25"/>
+      <c r="C59" s="26"/>
     </row>
     <row r="60" spans="1:3" ht="15">
       <c r="A60" s="5" t="s">
@@ -7536,7 +7536,7 @@
       <c r="B60" s="5" t="s">
         <v>274</v>
       </c>
-      <c r="C60" s="25"/>
+      <c r="C60" s="26"/>
     </row>
     <row r="61" spans="1:3" ht="15">
       <c r="A61" s="5" t="s">
@@ -7545,7 +7545,7 @@
       <c r="B61" s="5" t="s">
         <v>275</v>
       </c>
-      <c r="C61" s="25"/>
+      <c r="C61" s="26"/>
     </row>
     <row r="62" spans="1:3" ht="15">
       <c r="A62" s="5" t="s">
@@ -7554,7 +7554,7 @@
       <c r="B62" s="5" t="s">
         <v>276</v>
       </c>
-      <c r="C62" s="25"/>
+      <c r="C62" s="26"/>
     </row>
     <row r="63" spans="1:3" ht="15">
       <c r="A63" s="5" t="s">
@@ -7563,7 +7563,7 @@
       <c r="B63" s="5" t="s">
         <v>277</v>
       </c>
-      <c r="C63" s="25"/>
+      <c r="C63" s="26"/>
     </row>
     <row r="64" spans="1:3" ht="15">
       <c r="A64" s="5" t="s">
@@ -7572,7 +7572,7 @@
       <c r="B64" s="5" t="s">
         <v>278</v>
       </c>
-      <c r="C64" s="25"/>
+      <c r="C64" s="26"/>
     </row>
     <row r="65" spans="1:3" ht="15">
       <c r="A65" s="5" t="s">
@@ -7581,7 +7581,7 @@
       <c r="B65" s="5" t="s">
         <v>279</v>
       </c>
-      <c r="C65" s="25"/>
+      <c r="C65" s="26"/>
     </row>
     <row r="66" spans="1:3" ht="15">
       <c r="A66" s="5" t="s">
@@ -7590,7 +7590,7 @@
       <c r="B66" s="5" t="s">
         <v>280</v>
       </c>
-      <c r="C66" s="25"/>
+      <c r="C66" s="26"/>
     </row>
     <row r="67" spans="1:3" ht="15">
       <c r="A67" s="5" t="s">
@@ -7599,7 +7599,7 @@
       <c r="B67" s="5" t="s">
         <v>281</v>
       </c>
-      <c r="C67" s="25"/>
+      <c r="C67" s="26"/>
     </row>
     <row r="68" spans="1:3" ht="15">
       <c r="A68" s="5" t="s">
@@ -7608,7 +7608,7 @@
       <c r="B68" s="5" t="s">
         <v>282</v>
       </c>
-      <c r="C68" s="25"/>
+      <c r="C68" s="26"/>
     </row>
     <row r="69" spans="1:3" ht="15">
       <c r="A69" s="5" t="s">
@@ -7617,7 +7617,7 @@
       <c r="B69" s="5" t="s">
         <v>283</v>
       </c>
-      <c r="C69" s="25"/>
+      <c r="C69" s="26"/>
     </row>
     <row r="70" spans="1:3" ht="15">
       <c r="A70" s="5" t="s">
@@ -7626,7 +7626,7 @@
       <c r="B70" s="5" t="s">
         <v>284</v>
       </c>
-      <c r="C70" s="26"/>
+      <c r="C70" s="27"/>
     </row>
     <row r="71" spans="1:3" ht="15">
       <c r="A71" s="5" t="s">
@@ -7635,7 +7635,7 @@
       <c r="B71" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="C71" s="24" t="s">
+      <c r="C71" s="25" t="s">
         <v>286</v>
       </c>
     </row>
@@ -7646,7 +7646,7 @@
       <c r="B72" s="5" t="s">
         <v>287</v>
       </c>
-      <c r="C72" s="25"/>
+      <c r="C72" s="26"/>
     </row>
     <row r="73" spans="1:3" ht="15">
       <c r="A73" s="5" t="s">
@@ -7655,7 +7655,7 @@
       <c r="B73" s="5" t="s">
         <v>288</v>
       </c>
-      <c r="C73" s="25"/>
+      <c r="C73" s="26"/>
     </row>
     <row r="74" spans="1:3" ht="15">
       <c r="A74" s="5" t="s">
@@ -7664,7 +7664,7 @@
       <c r="B74" s="5" t="s">
         <v>289</v>
       </c>
-      <c r="C74" s="25"/>
+      <c r="C74" s="26"/>
     </row>
     <row r="75" spans="1:3" ht="15">
       <c r="A75" s="5" t="s">
@@ -7673,7 +7673,7 @@
       <c r="B75" s="5" t="s">
         <v>290</v>
       </c>
-      <c r="C75" s="25"/>
+      <c r="C75" s="26"/>
     </row>
     <row r="76" spans="1:3" ht="15">
       <c r="A76" s="5" t="s">
@@ -7682,7 +7682,7 @@
       <c r="B76" s="5" t="s">
         <v>291</v>
       </c>
-      <c r="C76" s="25"/>
+      <c r="C76" s="26"/>
     </row>
     <row r="77" spans="1:3" ht="15">
       <c r="A77" s="5" t="s">
@@ -7691,7 +7691,7 @@
       <c r="B77" s="5" t="s">
         <v>292</v>
       </c>
-      <c r="C77" s="25"/>
+      <c r="C77" s="26"/>
     </row>
     <row r="78" spans="1:3" ht="15">
       <c r="A78" s="5" t="s">
@@ -7700,7 +7700,7 @@
       <c r="B78" s="5" t="s">
         <v>293</v>
       </c>
-      <c r="C78" s="25"/>
+      <c r="C78" s="26"/>
     </row>
     <row r="79" spans="1:3" ht="15">
       <c r="A79" s="5" t="s">
@@ -7709,7 +7709,7 @@
       <c r="B79" s="5" t="s">
         <v>294</v>
       </c>
-      <c r="C79" s="25"/>
+      <c r="C79" s="26"/>
     </row>
     <row r="80" spans="1:3" ht="15">
       <c r="A80" s="5" t="s">
@@ -7718,7 +7718,7 @@
       <c r="B80" s="5" t="s">
         <v>295</v>
       </c>
-      <c r="C80" s="25"/>
+      <c r="C80" s="26"/>
     </row>
     <row r="81" spans="1:3" ht="15">
       <c r="A81" s="5" t="s">
@@ -7727,7 +7727,7 @@
       <c r="B81" s="5" t="s">
         <v>296</v>
       </c>
-      <c r="C81" s="25"/>
+      <c r="C81" s="26"/>
     </row>
     <row r="82" spans="1:3" ht="15">
       <c r="A82" s="5" t="s">
@@ -7736,7 +7736,7 @@
       <c r="B82" s="5" t="s">
         <v>297</v>
       </c>
-      <c r="C82" s="25"/>
+      <c r="C82" s="26"/>
     </row>
     <row r="83" spans="1:3" ht="15">
       <c r="A83" s="5" t="s">
@@ -7745,7 +7745,7 @@
       <c r="B83" s="5" t="s">
         <v>298</v>
       </c>
-      <c r="C83" s="25"/>
+      <c r="C83" s="26"/>
     </row>
     <row r="84" spans="1:3" ht="15">
       <c r="A84" s="5" t="s">
@@ -7754,7 +7754,7 @@
       <c r="B84" s="5" t="s">
         <v>299</v>
       </c>
-      <c r="C84" s="25"/>
+      <c r="C84" s="26"/>
     </row>
     <row r="85" spans="1:3" ht="15">
       <c r="A85" s="5" t="s">
@@ -7763,7 +7763,7 @@
       <c r="B85" s="5" t="s">
         <v>300</v>
       </c>
-      <c r="C85" s="25"/>
+      <c r="C85" s="26"/>
     </row>
     <row r="86" spans="1:3" ht="15">
       <c r="A86" s="5" t="s">
@@ -7772,7 +7772,7 @@
       <c r="B86" s="5" t="s">
         <v>301</v>
       </c>
-      <c r="C86" s="25"/>
+      <c r="C86" s="26"/>
     </row>
     <row r="87" spans="1:3" ht="15">
       <c r="A87" s="5" t="s">
@@ -7781,7 +7781,7 @@
       <c r="B87" s="5" t="s">
         <v>302</v>
       </c>
-      <c r="C87" s="25"/>
+      <c r="C87" s="26"/>
     </row>
     <row r="88" spans="1:3" ht="15">
       <c r="A88" s="5" t="s">
@@ -7790,7 +7790,7 @@
       <c r="B88" s="5" t="s">
         <v>303</v>
       </c>
-      <c r="C88" s="25"/>
+      <c r="C88" s="26"/>
     </row>
     <row r="89" spans="1:3" ht="15">
       <c r="A89" s="5" t="s">
@@ -7799,7 +7799,7 @@
       <c r="B89" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="C89" s="25"/>
+      <c r="C89" s="26"/>
     </row>
     <row r="90" spans="1:3" ht="15">
       <c r="A90" s="5" t="s">
@@ -7808,7 +7808,7 @@
       <c r="B90" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="C90" s="26"/>
+      <c r="C90" s="27"/>
     </row>
     <row r="91" spans="1:3" ht="15">
       <c r="A91" s="5" t="s">
@@ -7921,7 +7921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -7931,7 +7931,7 @@
     <col min="2" max="2" width="14.375" style="8" customWidth="1"/>
     <col min="3" max="3" width="15" style="8" customWidth="1"/>
     <col min="4" max="4" width="19.5" style="8" customWidth="1"/>
-    <col min="5" max="5" width="12.25" style="8" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="36.875" style="8" customWidth="1"/>
     <col min="6" max="6" width="71.125" style="12" customWidth="1"/>
     <col min="7" max="7" width="13.75" style="8" bestFit="1" customWidth="1"/>
     <col min="8" max="16384" width="9" style="8"/>
@@ -8805,7 +8805,7 @@
         <v>380</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="F45" s="15" t="s">
         <v>425</v>
@@ -9069,7 +9069,7 @@
   </sheetPr>
   <dimension ref="B2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
@@ -9079,8 +9079,8 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:2" ht="226.5" customHeight="1">
-      <c r="B2" s="27" t="s">
-        <v>491</v>
+      <c r="B2" s="21" t="s">
+        <v>490</v>
       </c>
     </row>
   </sheetData>

--- a/doc/io 分配表 - HvsNv1.2.0.xlsx
+++ b/doc/io 分配表 - HvsNv1.2.0.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6405" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="6405"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -890,10 +890,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PG7（64）</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RELAY85 (121)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -5092,6 +5088,10 @@
   </si>
   <si>
     <t>relay59 60  61 66~81</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PH7（64）</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5885,8 +5885,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C117"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B75" sqref="B75:B78"/>
+    <sheetView tabSelected="1" topLeftCell="A79" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C102" sqref="C102"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -6042,7 +6042,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="20.25">
@@ -6053,7 +6053,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="20.25">
@@ -6064,7 +6064,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="20.25">
@@ -6075,7 +6075,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="20.25">
@@ -6086,7 +6086,7 @@
         <v>82</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="20.25">
@@ -6097,7 +6097,7 @@
         <v>83</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="20.25">
@@ -6108,7 +6108,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="20.25">
@@ -6130,7 +6130,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="40.5">
@@ -6141,7 +6141,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="20.25">
@@ -6152,7 +6152,7 @@
         <v>88</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="20.25">
@@ -6163,7 +6163,7 @@
         <v>89</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="20.25">
@@ -6174,7 +6174,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="20.25">
@@ -6832,10 +6832,10 @@
     </row>
     <row r="98" spans="1:3" ht="19.5" customHeight="1">
       <c r="A98" s="2" t="s">
+        <v>491</v>
+      </c>
+      <c r="B98" s="2" t="s">
         <v>215</v>
-      </c>
-      <c r="B98" s="2" t="s">
-        <v>216</v>
       </c>
       <c r="C98" s="2" t="s">
         <v>194</v>
@@ -6846,10 +6846,10 @@
         <v>195</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="20.25">
@@ -6857,10 +6857,10 @@
         <v>196</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="101" spans="1:3" ht="20.25">
@@ -6945,10 +6945,10 @@
         <v>119</v>
       </c>
       <c r="B1" s="5" t="s">
+        <v>233</v>
+      </c>
+      <c r="C1" s="5" t="s">
         <v>234</v>
-      </c>
-      <c r="C1" s="5" t="s">
-        <v>235</v>
       </c>
     </row>
     <row r="2" spans="1:3" ht="15">
@@ -7085,7 +7085,7 @@
         <v>28</v>
       </c>
       <c r="C16" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15">
@@ -7096,7 +7096,7 @@
         <v>29</v>
       </c>
       <c r="C17" s="5" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15">
@@ -7107,7 +7107,7 @@
         <v>80</v>
       </c>
       <c r="C18" s="5" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15">
@@ -7118,7 +7118,7 @@
         <v>81</v>
       </c>
       <c r="C19" s="5" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15">
@@ -7129,7 +7129,7 @@
         <v>82</v>
       </c>
       <c r="C20" s="5" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15">
@@ -7140,7 +7140,7 @@
         <v>83</v>
       </c>
       <c r="C21" s="5" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15">
@@ -7151,7 +7151,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="5" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15">
@@ -7162,7 +7162,7 @@
         <v>85</v>
       </c>
       <c r="C23" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="15">
@@ -7173,7 +7173,7 @@
         <v>86</v>
       </c>
       <c r="C24" s="5" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="15">
@@ -7184,7 +7184,7 @@
         <v>87</v>
       </c>
       <c r="C25" s="5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="15">
@@ -7195,7 +7195,7 @@
         <v>88</v>
       </c>
       <c r="C26" s="5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="15">
@@ -7206,7 +7206,7 @@
         <v>89</v>
       </c>
       <c r="C27" s="5" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="15">
@@ -7217,7 +7217,7 @@
         <v>90</v>
       </c>
       <c r="C28" s="5" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="15">
@@ -7228,7 +7228,7 @@
         <v>91</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="15">
@@ -7239,7 +7239,7 @@
         <v>92</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="31" spans="1:3" ht="15">
@@ -7250,7 +7250,7 @@
         <v>93</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="15">
@@ -7261,7 +7261,7 @@
         <v>94</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
     </row>
     <row r="33" spans="1:3" ht="15">
@@ -7272,7 +7272,7 @@
         <v>95</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
     </row>
     <row r="34" spans="1:3" ht="15">
@@ -7283,7 +7283,7 @@
         <v>96</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="35" spans="1:3" ht="15">
@@ -7294,7 +7294,7 @@
         <v>97</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="36" spans="1:3" ht="15">
@@ -7305,7 +7305,7 @@
         <v>98</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="37" spans="1:3" ht="15">
@@ -7316,7 +7316,7 @@
         <v>99</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="38" spans="1:3" ht="15">
@@ -7327,7 +7327,7 @@
         <v>100</v>
       </c>
       <c r="C38" s="5" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="39" spans="1:3" ht="15">
@@ -7347,7 +7347,7 @@
         <v>102</v>
       </c>
       <c r="C40" s="5" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="41" spans="1:3" ht="15">
@@ -7367,7 +7367,7 @@
         <v>104</v>
       </c>
       <c r="C42" s="5" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="43" spans="1:3" ht="15">
@@ -7387,7 +7387,7 @@
         <v>106</v>
       </c>
       <c r="C44" s="5" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="45" spans="1:3" ht="15">
@@ -7407,7 +7407,7 @@
         <v>108</v>
       </c>
       <c r="C46" s="5" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="47" spans="1:3" ht="15">
@@ -7427,7 +7427,7 @@
         <v>110</v>
       </c>
       <c r="C48" s="5" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="49" spans="1:3" ht="15">
@@ -7441,7 +7441,7 @@
     </row>
     <row r="50" spans="1:3" ht="15">
       <c r="A50" s="5" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B50" s="5"/>
       <c r="C50" s="5"/>
@@ -7451,10 +7451,10 @@
         <v>51</v>
       </c>
       <c r="B51" s="5" t="s">
+        <v>263</v>
+      </c>
+      <c r="C51" s="25" t="s">
         <v>264</v>
-      </c>
-      <c r="C51" s="25" t="s">
-        <v>265</v>
       </c>
     </row>
     <row r="52" spans="1:3" ht="15">
@@ -7462,7 +7462,7 @@
         <v>52</v>
       </c>
       <c r="B52" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="C52" s="26"/>
     </row>
@@ -7471,7 +7471,7 @@
         <v>53</v>
       </c>
       <c r="B53" s="5" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="C53" s="26"/>
     </row>
@@ -7480,7 +7480,7 @@
         <v>144</v>
       </c>
       <c r="B54" s="5" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="C54" s="26"/>
     </row>
@@ -7489,7 +7489,7 @@
         <v>146</v>
       </c>
       <c r="B55" s="5" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="C55" s="26"/>
     </row>
@@ -7498,7 +7498,7 @@
         <v>148</v>
       </c>
       <c r="B56" s="5" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C56" s="26"/>
     </row>
@@ -7507,7 +7507,7 @@
         <v>150</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="C57" s="26"/>
     </row>
@@ -7516,7 +7516,7 @@
         <v>54</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C58" s="26"/>
     </row>
@@ -7525,7 +7525,7 @@
         <v>55</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C59" s="26"/>
     </row>
@@ -7534,7 +7534,7 @@
         <v>56</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="C60" s="26"/>
     </row>
@@ -7543,7 +7543,7 @@
         <v>57</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="C61" s="26"/>
     </row>
@@ -7552,7 +7552,7 @@
         <v>58</v>
       </c>
       <c r="B62" s="5" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="C62" s="26"/>
     </row>
@@ -7561,7 +7561,7 @@
         <v>59</v>
       </c>
       <c r="B63" s="5" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="C63" s="26"/>
     </row>
@@ -7570,7 +7570,7 @@
         <v>161</v>
       </c>
       <c r="B64" s="5" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="C64" s="26"/>
     </row>
@@ -7579,7 +7579,7 @@
         <v>164</v>
       </c>
       <c r="B65" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C65" s="26"/>
     </row>
@@ -7588,7 +7588,7 @@
         <v>167</v>
       </c>
       <c r="B66" s="5" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="C66" s="26"/>
     </row>
@@ -7597,7 +7597,7 @@
         <v>168</v>
       </c>
       <c r="B67" s="5" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="C67" s="26"/>
     </row>
@@ -7606,7 +7606,7 @@
         <v>60</v>
       </c>
       <c r="B68" s="5" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C68" s="26"/>
     </row>
@@ -7615,7 +7615,7 @@
         <v>61</v>
       </c>
       <c r="B69" s="5" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="C69" s="26"/>
     </row>
@@ -7624,7 +7624,7 @@
         <v>62</v>
       </c>
       <c r="B70" s="5" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="C70" s="27"/>
     </row>
@@ -7633,10 +7633,10 @@
         <v>63</v>
       </c>
       <c r="B71" s="5" t="s">
+        <v>284</v>
+      </c>
+      <c r="C71" s="25" t="s">
         <v>285</v>
-      </c>
-      <c r="C71" s="25" t="s">
-        <v>286</v>
       </c>
     </row>
     <row r="72" spans="1:3" ht="15">
@@ -7644,7 +7644,7 @@
         <v>64</v>
       </c>
       <c r="B72" s="5" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="C72" s="26"/>
     </row>
@@ -7653,7 +7653,7 @@
         <v>65</v>
       </c>
       <c r="B73" s="5" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="C73" s="26"/>
     </row>
@@ -7662,7 +7662,7 @@
         <v>66</v>
       </c>
       <c r="B74" s="5" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="C74" s="26"/>
     </row>
@@ -7671,7 +7671,7 @@
         <v>11</v>
       </c>
       <c r="B75" s="5" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="C75" s="26"/>
     </row>
@@ -7680,7 +7680,7 @@
         <v>12</v>
       </c>
       <c r="B76" s="5" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="C76" s="26"/>
     </row>
@@ -7689,7 +7689,7 @@
         <v>13</v>
       </c>
       <c r="B77" s="5" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="C77" s="26"/>
     </row>
@@ -7698,7 +7698,7 @@
         <v>14</v>
       </c>
       <c r="B78" s="5" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="C78" s="26"/>
     </row>
@@ -7707,7 +7707,7 @@
         <v>175</v>
       </c>
       <c r="B79" s="5" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="C79" s="26"/>
     </row>
@@ -7716,7 +7716,7 @@
         <v>177</v>
       </c>
       <c r="B80" s="5" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C80" s="26"/>
     </row>
@@ -7725,7 +7725,7 @@
         <v>15</v>
       </c>
       <c r="B81" s="5" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="C81" s="26"/>
     </row>
@@ -7734,7 +7734,7 @@
         <v>180</v>
       </c>
       <c r="B82" s="5" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="C82" s="26"/>
     </row>
@@ -7743,7 +7743,7 @@
         <v>182</v>
       </c>
       <c r="B83" s="5" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="C83" s="26"/>
     </row>
@@ -7752,7 +7752,7 @@
         <v>16</v>
       </c>
       <c r="B84" s="5" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="C84" s="26"/>
     </row>
@@ -7761,7 +7761,7 @@
         <v>17</v>
       </c>
       <c r="B85" s="5" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="C85" s="26"/>
     </row>
@@ -7770,7 +7770,7 @@
         <v>186</v>
       </c>
       <c r="B86" s="5" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="C86" s="26"/>
     </row>
@@ -7779,7 +7779,7 @@
         <v>18</v>
       </c>
       <c r="B87" s="5" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="C87" s="26"/>
     </row>
@@ -7788,7 +7788,7 @@
         <v>19</v>
       </c>
       <c r="B88" s="5" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C88" s="26"/>
     </row>
@@ -7797,7 +7797,7 @@
         <v>20</v>
       </c>
       <c r="B89" s="5" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="C89" s="26"/>
     </row>
@@ -7806,7 +7806,7 @@
         <v>21</v>
       </c>
       <c r="B90" s="5" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="C90" s="27"/>
     </row>
@@ -7875,35 +7875,35 @@
     </row>
     <row r="98" spans="1:3" ht="15">
       <c r="A98" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B98" s="5" t="s">
+        <v>215</v>
+      </c>
+      <c r="C98" s="5" t="s">
         <v>306</v>
-      </c>
-      <c r="B98" s="5" t="s">
-        <v>216</v>
-      </c>
-      <c r="C98" s="5" t="s">
-        <v>307</v>
       </c>
     </row>
     <row r="99" spans="1:3" ht="15">
       <c r="A99" s="5" t="s">
+        <v>307</v>
+      </c>
+      <c r="B99" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="C99" s="5" t="s">
         <v>308</v>
-      </c>
-      <c r="B99" s="5" t="s">
-        <v>217</v>
-      </c>
-      <c r="C99" s="5" t="s">
-        <v>309</v>
       </c>
     </row>
     <row r="100" spans="1:3" ht="15">
       <c r="A100" s="5" t="s">
+        <v>309</v>
+      </c>
+      <c r="B100" s="5" t="s">
+        <v>217</v>
+      </c>
+      <c r="C100" s="5" t="s">
         <v>310</v>
-      </c>
-      <c r="B100" s="5" t="s">
-        <v>218</v>
-      </c>
-      <c r="C100" s="5" t="s">
-        <v>311</v>
       </c>
     </row>
   </sheetData>
@@ -7921,7 +7921,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A10" workbookViewId="0">
       <selection activeCell="E45" sqref="E45"/>
     </sheetView>
   </sheetViews>
@@ -7939,48 +7939,48 @@
   <sheetData>
     <row r="1" spans="1:7" s="6" customFormat="1" ht="14.25">
       <c r="A1" s="6" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D1" s="6" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E1" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G1" s="6" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" s="8" t="s">
+        <v>357</v>
+      </c>
+      <c r="B2" s="8" t="s">
         <v>358</v>
       </c>
-      <c r="B2" s="8" t="s">
+      <c r="C2" s="8" t="s">
         <v>359</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="D2" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="E2" s="8" t="s">
         <v>361</v>
       </c>
-      <c r="E2" s="8" t="s">
+      <c r="F2" s="8" t="s">
         <v>362</v>
       </c>
-      <c r="F2" s="8" t="s">
+      <c r="G2" s="8" t="s">
         <v>363</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>364</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7988,17 +7988,17 @@
         <v>1</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="11" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G3" s="9"/>
     </row>
@@ -8007,17 +8007,17 @@
         <v>2</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="C4" s="9" t="s">
+        <v>386</v>
+      </c>
+      <c r="D4" s="9" t="s">
         <v>387</v>
-      </c>
-      <c r="D4" s="9" t="s">
-        <v>388</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="11" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G4" s="9"/>
     </row>
@@ -8026,10 +8026,10 @@
         <v>3</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -8041,10 +8041,10 @@
         <v>4</v>
       </c>
       <c r="B6" s="9" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C6" s="9" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D6" s="9"/>
       <c r="E6" s="9"/>
@@ -8056,17 +8056,17 @@
         <v>5</v>
       </c>
       <c r="B7" s="16" t="s">
+        <v>448</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>329</v>
+      </c>
+      <c r="D7" s="16" t="s">
         <v>449</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>330</v>
-      </c>
-      <c r="D7" s="16" t="s">
-        <v>450</v>
       </c>
       <c r="E7" s="16"/>
       <c r="F7" s="16" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G7" s="9"/>
     </row>
@@ -8075,17 +8075,17 @@
         <v>6</v>
       </c>
       <c r="B8" s="9" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C8" s="9" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D8" s="9"/>
       <c r="E8" s="9" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G8" s="9"/>
     </row>
@@ -8094,17 +8094,17 @@
         <v>7</v>
       </c>
       <c r="B9" s="9" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C9" s="9" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D9" s="9"/>
       <c r="E9" s="9" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G9" s="9"/>
     </row>
@@ -8113,17 +8113,17 @@
         <v>8</v>
       </c>
       <c r="B10" s="9" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D10" s="9"/>
       <c r="E10" s="9" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G10" s="9"/>
     </row>
@@ -8132,17 +8132,17 @@
         <v>9</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C11" s="17" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D11" s="17" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="E11" s="17"/>
       <c r="F11" s="16" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G11" s="9"/>
     </row>
@@ -8151,17 +8151,17 @@
         <v>10</v>
       </c>
       <c r="B12" s="9" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C12" s="9" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D12" s="9"/>
       <c r="E12" s="9" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G12" s="9"/>
     </row>
@@ -8170,17 +8170,17 @@
         <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C13" s="9" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D13" s="9"/>
       <c r="E13" s="9" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="F13" s="11" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G13" s="9"/>
     </row>
@@ -8189,17 +8189,17 @@
         <v>12</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="C14" s="9" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D14" s="9"/>
       <c r="E14" s="9" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="F14" s="11" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G14" s="9"/>
     </row>
@@ -8208,17 +8208,17 @@
         <v>13</v>
       </c>
       <c r="B15" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="C15" s="17" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D15" s="17" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="E15" s="17"/>
       <c r="F15" s="16" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G15" s="9"/>
     </row>
@@ -8227,19 +8227,19 @@
         <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="C16" s="9" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D16" s="9" t="s">
+        <v>412</v>
+      </c>
+      <c r="E16" s="9" t="s">
+        <v>465</v>
+      </c>
+      <c r="F16" s="11" t="s">
         <v>413</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>466</v>
-      </c>
-      <c r="F16" s="11" t="s">
-        <v>414</v>
       </c>
       <c r="G16" s="9"/>
     </row>
@@ -8248,19 +8248,19 @@
         <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="C17" s="9" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D17" s="9" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E17" s="9" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G17" s="9"/>
     </row>
@@ -8269,19 +8269,19 @@
         <v>16</v>
       </c>
       <c r="B18" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="C18" s="9" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E18" s="9" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="F18" s="11" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G18" s="9"/>
     </row>
@@ -8290,17 +8290,17 @@
         <v>17</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C19" s="9" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D19" s="9"/>
       <c r="E19" s="9" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G19" s="9"/>
     </row>
@@ -8309,17 +8309,17 @@
         <v>18</v>
       </c>
       <c r="B20" s="10" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C20" s="9" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D20" s="9"/>
       <c r="E20" s="9" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G20" s="9"/>
     </row>
@@ -8328,17 +8328,17 @@
         <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="C21" s="9" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D21" s="9"/>
       <c r="E21" s="9" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G21" s="9"/>
     </row>
@@ -8347,19 +8347,19 @@
         <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="C22" s="9" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D22" s="9" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="E22" s="9" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="F22" s="9" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G22" s="9"/>
     </row>
@@ -8368,17 +8368,17 @@
         <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="C23" s="9" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="E23" s="9"/>
       <c r="F23" s="9" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G23" s="9"/>
     </row>
@@ -8387,17 +8387,17 @@
         <v>22</v>
       </c>
       <c r="B24" s="18" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="C24" s="17" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="E24" s="17"/>
       <c r="F24" s="16" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G24" s="9"/>
     </row>
@@ -8406,17 +8406,17 @@
         <v>23</v>
       </c>
       <c r="B25" s="10" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C25" s="9" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D25" s="9"/>
       <c r="E25" s="9" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="F25" s="11" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G25" s="9"/>
     </row>
@@ -8425,17 +8425,17 @@
         <v>24</v>
       </c>
       <c r="B26" s="10" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D26" s="9"/>
       <c r="E26" s="9" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="F26" s="11" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G26" s="9"/>
     </row>
@@ -8444,17 +8444,17 @@
         <v>25</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D27" s="9"/>
       <c r="E27" s="9" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="F27" s="11" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G27" s="9"/>
     </row>
@@ -8463,17 +8463,17 @@
         <v>26</v>
       </c>
       <c r="B28" s="18" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="C28" s="17" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="E28" s="17"/>
       <c r="F28" s="16" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G28" s="9"/>
     </row>
@@ -8482,17 +8482,17 @@
         <v>27</v>
       </c>
       <c r="B29" s="10" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C29" s="9" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D29" s="9"/>
       <c r="E29" s="9" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="F29" s="11" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G29" s="9"/>
     </row>
@@ -8501,17 +8501,17 @@
         <v>28</v>
       </c>
       <c r="B30" s="10" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="C30" s="9" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D30" s="9"/>
       <c r="E30" s="9" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="F30" s="11" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G30" s="9"/>
     </row>
@@ -8520,17 +8520,17 @@
         <v>29</v>
       </c>
       <c r="B31" s="10" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="C31" s="9" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D31" s="9"/>
       <c r="E31" s="9" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="F31" s="11" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G31" s="9"/>
     </row>
@@ -8539,17 +8539,17 @@
         <v>30</v>
       </c>
       <c r="B32" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="C32" s="17" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="E32" s="17"/>
       <c r="F32" s="16" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G32" s="9"/>
     </row>
@@ -8558,17 +8558,17 @@
         <v>31</v>
       </c>
       <c r="B33" s="10" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="C33" s="9" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D33" s="9"/>
       <c r="E33" s="9" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="F33" s="11" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G33" s="9"/>
     </row>
@@ -8577,17 +8577,17 @@
         <v>32</v>
       </c>
       <c r="B34" s="10" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C34" s="9" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D34" s="9"/>
       <c r="E34" s="9" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="F34" s="11" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G34" s="9"/>
     </row>
@@ -8596,17 +8596,17 @@
         <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="C35" s="9" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D35" s="9"/>
       <c r="E35" s="9" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="F35" s="11" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G35" s="9"/>
     </row>
@@ -8615,17 +8615,17 @@
         <v>34</v>
       </c>
       <c r="B36" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="C36" s="17" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="E36" s="17"/>
       <c r="F36" s="16" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G36" s="9"/>
     </row>
@@ -8634,17 +8634,17 @@
         <v>35</v>
       </c>
       <c r="B37" s="10" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="C37" s="9" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D37" s="9"/>
       <c r="E37" s="9" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="F37" s="11" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G37" s="9"/>
     </row>
@@ -8653,17 +8653,17 @@
         <v>36</v>
       </c>
       <c r="B38" s="10" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C38" s="9" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D38" s="9"/>
       <c r="E38" s="9" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="F38" s="11" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G38" s="9"/>
     </row>
@@ -8672,17 +8672,17 @@
         <v>37</v>
       </c>
       <c r="B39" s="9" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="C39" s="9" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D39" s="9"/>
       <c r="E39" s="9" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="F39" s="11" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G39" s="9"/>
     </row>
@@ -8691,19 +8691,19 @@
         <v>38</v>
       </c>
       <c r="B40" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="C40" s="9" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D40" s="9" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="E40" s="19" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="F40" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G40" s="9"/>
     </row>
@@ -8712,19 +8712,19 @@
         <v>39</v>
       </c>
       <c r="B41" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C41" s="9" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="E41" s="9" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="F41" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G41" s="9"/>
     </row>
@@ -8733,19 +8733,19 @@
         <v>40</v>
       </c>
       <c r="B42" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="C42" s="9" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="E42" s="20" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G42" s="9"/>
     </row>
@@ -8754,19 +8754,19 @@
         <v>41</v>
       </c>
       <c r="B43" s="13" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D43" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="E43" s="20" t="s">
+        <v>487</v>
+      </c>
+      <c r="F43" s="15" t="s">
         <v>423</v>
-      </c>
-      <c r="E43" s="20" t="s">
-        <v>488</v>
-      </c>
-      <c r="F43" s="15" t="s">
-        <v>424</v>
       </c>
       <c r="G43" s="9"/>
     </row>
@@ -8775,19 +8775,19 @@
         <v>42</v>
       </c>
       <c r="B44" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="C44" s="9" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D44" s="9" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="E44" s="20" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="F44" s="11" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G44" s="9"/>
     </row>
@@ -8796,19 +8796,19 @@
         <v>43</v>
       </c>
       <c r="B45" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C45" s="13" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D45" s="13" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="E45" s="20" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G45" s="9"/>
     </row>
@@ -9080,7 +9080,7 @@
   <sheetData>
     <row r="2" spans="2:2" ht="226.5" customHeight="1">
       <c r="B2" s="21" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
   </sheetData>
